--- a/medicine/Pharmacie/Azélastine/Azélastine.xlsx
+++ b/medicine/Pharmacie/Azélastine/Azélastine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Az%C3%A9lastine</t>
+          <t>Azélastine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'azélastine est une substance chimique et un médicament de la famille des phthalazinones qui possède des propriétés antihistaminiques H1 et bronchodilatatrices. C'est une molécule utilisée dans le traitement de l'allergie et de l'asthme. Elle est commercialisée en France avec la spécialité Allergodil[2].
-Gli effetti collaterali più comuni includono cefalea, sonnolenza, alterazione del gusto e mal di gola. Non è chiaro se l'uso sia sicuro durante la gravidanza o l'allattamento[3]. È un antistaminico di seconda generazione e agisce bloccando il rilascio di una serie di mediatori infiammatori, tra cui l'istamina[2].
+L'azélastine est une substance chimique et un médicament de la famille des phthalazinones qui possède des propriétés antihistaminiques H1 et bronchodilatatrices. C'est une molécule utilisée dans le traitement de l'allergie et de l'asthme. Elle est commercialisée en France avec la spécialité Allergodil.
+Gli effetti collaterali più comuni includono cefalea, sonnolenza, alterazione del gusto e mal di gola. Non è chiaro se l'uso sia sicuro durante la gravidanza o l'allattamento. È un antistaminico di seconda generazione e agisce bloccando il rilascio di una serie di mediatori infiammatori, tra cui l'istamina.
 </t>
         </is>
       </c>
